--- a/CellProliferationGUI/VALIndividual Cell Percentages - Organism=Test testulus, Sex=Male, Init_Pop=1, Sim_Duration=10, Interval=1, Haploid#=2.xlsx
+++ b/CellProliferationGUI/VALIndividual Cell Percentages - Organism=Test testulus, Sex=Male, Init_Pop=1, Sim_Duration=10, Interval=1, Haploid#=2.xlsx
@@ -6743,7 +6743,7 @@
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
